--- a/Assets/Refactoring/06_Data/Excel/GameRuleData.xlsx
+++ b/Assets/Refactoring/06_Data/Excel/GameRuleData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zxca0\Desktop\작업\2D_Defense\Assets\Refactoring\06_Data\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HOME\Desktop\작업\2D_Defense\Assets\Refactoring\06_Data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7197B03-98AF-40C6-BE33-79E06FDD25D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98C3FB64-0AFA-4574-9E70-D3CA2A3AC43A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{C5BA0343-3613-49B4-8368-88907C6946D2}"/>
+    <workbookView xWindow="11175" yWindow="4995" windowWidth="21810" windowHeight="21390" xr2:uid="{C5BA0343-3613-49B4-8368-88907C6946D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,13 +34,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>LifeLimit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InitialGold</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -414,7 +418,7 @@
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -440,6 +444,9 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
@@ -447,6 +454,9 @@
       </c>
       <c r="B2" s="1">
         <v>10</v>
+      </c>
+      <c r="C2" s="1">
+        <v>6</v>
       </c>
       <c r="E2" s="2"/>
     </row>

--- a/Assets/Refactoring/06_Data/Excel/GameRuleData.xlsx
+++ b/Assets/Refactoring/06_Data/Excel/GameRuleData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HOME\Desktop\작업\2D_Defense\Assets\Refactoring\06_Data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98C3FB64-0AFA-4574-9E70-D3CA2A3AC43A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68B990E3-7AE6-42F0-A357-D4B9BBEEFB2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11175" yWindow="4995" windowWidth="21810" windowHeight="21390" xr2:uid="{C5BA0343-3613-49B4-8368-88907C6946D2}"/>
+    <workbookView xWindow="18000" yWindow="7155" windowWidth="21810" windowHeight="13485" xr2:uid="{C5BA0343-3613-49B4-8368-88907C6946D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -418,7 +418,7 @@
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -453,10 +453,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C2" s="1">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E2" s="2"/>
     </row>

--- a/Assets/Refactoring/06_Data/Excel/GameRuleData.xlsx
+++ b/Assets/Refactoring/06_Data/Excel/GameRuleData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HOME\Desktop\작업\2D_Defense\Assets\Refactoring\06_Data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68B990E3-7AE6-42F0-A357-D4B9BBEEFB2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FB94A97-2F86-4C8A-B6E9-23A19D77F5CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18000" yWindow="7155" windowWidth="21810" windowHeight="13485" xr2:uid="{C5BA0343-3613-49B4-8368-88907C6946D2}"/>
+    <workbookView xWindow="35025" yWindow="3900" windowWidth="20085" windowHeight="17205" xr2:uid="{C5BA0343-3613-49B4-8368-88907C6946D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -418,7 +418,7 @@
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -456,7 +456,7 @@
         <v>30</v>
       </c>
       <c r="C2" s="1">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E2" s="2"/>
     </row>
